--- a/output.xlsx
+++ b/output.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -42,12 +42,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,285 +473,637 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="21"/>
+    <col customWidth="1" max="6" min="6" width="21"/>
+    <col customWidth="1" max="7" min="7" width="22"/>
+    <col customWidth="1" max="8" min="8" width="22"/>
+    <col customWidth="1" max="9" min="9" width="21"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="23"/>
+    <col customWidth="1" max="13" min="13" width="22"/>
+    <col customWidth="1" max="14" min="14" width="21"/>
+    <col customWidth="1" max="15" min="15" width="21"/>
+    <col customWidth="1" max="16" min="16" width="21"/>
+    <col customWidth="1" max="17" min="17" width="29"/>
+    <col customWidth="1" max="18" min="18" width="12"/>
+    <col customWidth="1" max="19" min="19" width="20"/>
+    <col customWidth="1" max="20" min="20" width="21"/>
+    <col customWidth="1" max="21" min="21" width="20"/>
+    <col customWidth="1" max="22" min="22" width="21"/>
+    <col customWidth="1" max="23" min="23" width="20"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">random   </t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>good cond</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bad cond </t>
-        </is>
-      </c>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>bad cond</t>
+        </is>
+      </c>
+      <c r="W1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>size: 5   cond: 58.2002</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>size: 5   cond: 2.07084</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>size: 5   cond: 1.53504e+06</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cond</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>15.9762</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.7949</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.07084</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.1854</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.53504e+06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5.10982e+07</t>
-        </is>
-      </c>
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>iterations</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>iterations</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="n"/>
+      <c r="N3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R3" s="8" t="inlineStr">
+        <is>
+          <t>iterations</t>
+        </is>
+      </c>
+      <c r="S3" s="9" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="T3" s="10" t="n"/>
+      <c r="U3" s="10" t="n"/>
+      <c r="V3" s="10" t="n"/>
+      <c r="W3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>gauss</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Gauss</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.060141576 0.097858133 0.00066887789 -0.12723182 0.029296548</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-0.042246902 -0.077157637 0.056469655 0.056975938 -0.063087822 0.1296958</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>2.132e-14</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.057093174 0.038019435 0.11887254 0.20723722 0.34577835</t>
+          <t>0.15651984409411424</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.066699398 0.02708112 0.10354589 0.18074584 0.27029065 0.41947709</t>
+          <t>0.2771925750224953</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>840 -11340 43680 -63000 30240</t>
+          <t>-0.3056734494008028</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-1680 32760 -191520 466200 -498960 194040</t>
+          <t>-0.2551106287425672</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>0.10215121349834508</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>6.305e-16</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-0.057093174353167506</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.03801943473439143</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.11887253806928846</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.2072372242968839</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>0.34577834547327574</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>1.364e-12</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>839.9999999976626</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-11339.99999996872</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>43679.99999988438</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-62999.99999984065</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>30239.999999926677</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>GaussSelectCell</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.060141576 0.097858133 0.00066887789 -0.12723182 0.029296548</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.042246902 -0.077157637 0.056469655 0.056975938 -0.063087822 0.1296958</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>6.226e-14</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.057093174 0.038019435 0.11887254 0.20723722 0.34577835</t>
+          <t>0.156519844094114</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.066699398 0.02708112 0.10354589 0.18074584 0.27029065 0.41947709</t>
+          <t>0.2771925750224934</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>840 -11340 43680 -63000 30240</t>
+          <t>-0.3056734494008012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-1680 32760 -191520 466200 -498960 194040</t>
+          <t>-0.25511062874256535</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>0.10215121349834412</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>4.45e-16</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-0.057093174353167506</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.03801943473439143</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.11887253806928848</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.2072372242968839</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>0.3457783454732758</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>9.125e-08</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>839.9999998645435</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-11339.9999999338</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>43679.999999763466</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-62999.99999968098</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>30239.99999985542</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>GaussSelectColomn</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.060141576 0.097858133 0.00066887789 -0.12723182 0.029296548</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-0.042246902 -0.077157637 0.056469655 0.056975938 -0.063087822 0.1296958</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>4.529e-15</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.057093174 0.038019435 0.11887254 0.20723722 0.34577835</t>
+          <t>0.15651984409411465</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.066699398 0.02708112 0.10354589 0.18074584 0.27029065 0.41947709</t>
+          <t>0.27719257502249606</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>840 -11340 43680 -63000 30240</t>
+          <t>-0.30567344940080377</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1680 32760 -191520 466200 -498960 194040</t>
+          <t>-0.2551106287425678</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>0.10215121349834526</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>6.305e-16</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-0.057093174353167506</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.03801943473439143</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.11887253806928846</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.2072372242968839</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>0.34577834547327574</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>7.422e-11</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>839.9999999988468</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-11339.999999981457</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>43679.99999992573</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-62999.99999989262</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>30239.9999999492</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>GaussSelectRow</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.060141576 0.097858133 0.00066887789 -0.12723182 0.029296548</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.042246902 -0.077157637 0.056469655 0.056975938 -0.063087822 0.1296958</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-0.057093174 0.038019435 0.11887254 0.20723722 0.34577835</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.066699398 0.02708112 0.10354589 0.18074584 0.27029065 0.41947709</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>840 -11340 43680 -63000 30240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-1680 32760 -191520 466200 -498960 194040</t>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>1.375e-14</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>0.15651984409411496</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="inlineStr">
+        <is>
+          <t>0.2771925750224963</t>
+        </is>
+      </c>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>-0.3056734494008042</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="inlineStr">
+        <is>
+          <t>-0.25511062874256796</t>
+        </is>
+      </c>
+      <c r="I7" s="13" t="inlineStr">
+        <is>
+          <t>0.1021512134983453</t>
+        </is>
+      </c>
+      <c r="J7" s="12" t="inlineStr">
+        <is>
+          <t>6.305e-16</t>
+        </is>
+      </c>
+      <c r="K7" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="14" t="inlineStr">
+        <is>
+          <t>-0.057093174353167506</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t>0.03801943473439143</t>
+        </is>
+      </c>
+      <c r="N7" s="14" t="inlineStr">
+        <is>
+          <t>0.11887253806928846</t>
+        </is>
+      </c>
+      <c r="O7" s="14" t="inlineStr">
+        <is>
+          <t>0.2072372242968839</t>
+        </is>
+      </c>
+      <c r="P7" s="13" t="inlineStr">
+        <is>
+          <t>0.34577834547327574</t>
+        </is>
+      </c>
+      <c r="Q7" s="12" t="inlineStr">
+        <is>
+          <t>1.364e-12</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" s="14" t="inlineStr">
+        <is>
+          <t>840.0000000028867</t>
+        </is>
+      </c>
+      <c r="T7" s="14" t="inlineStr">
+        <is>
+          <t>-11340.00000002807</t>
+        </is>
+      </c>
+      <c r="U7" s="14" t="inlineStr">
+        <is>
+          <t>43680.00000008446</t>
+        </is>
+      </c>
+      <c r="V7" s="14" t="inlineStr">
+        <is>
+          <t>-63000.000000100335</t>
+        </is>
+      </c>
+      <c r="W7" s="13" t="inlineStr">
+        <is>
+          <t>30240.000000041196</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>relax</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Relax</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-0.057005374 0.038012861 0.11882266 0.20721144 0.34577634</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.066520282 0.027100623 0.10346168 0.18067309 0.27025951 0.41947798</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -634,93 +1114,330 @@
       <c r="H8" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>0.0009688</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-0.057005373811672935</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.03801286064149057</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.11882265975743724</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.20721143696736896</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>0.34577634347801867</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>0.01574</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>587.6768280594335</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-8514.128104721258</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>34251.91708893668</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-50865.29912089519</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>24925.699017386116</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="13" t="inlineStr">
         <is>
           <t>Seidel</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-0.057121632 0.038058913 0.11887975 0.20723642 0.34577634</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-0.06681985 0.027074801 0.10360901 0.18076336 0.270294 0.41947572</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" s="14" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" s="13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" s="12" t="inlineStr">
+        <is>
+          <t>0.0004197</t>
+        </is>
+      </c>
+      <c r="K9" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L9" s="14" t="inlineStr">
+        <is>
+          <t>-0.057121632402611894</t>
+        </is>
+      </c>
+      <c r="M9" s="14" t="inlineStr">
+        <is>
+          <t>0.038058912559349053</t>
+        </is>
+      </c>
+      <c r="N9" s="14" t="inlineStr">
+        <is>
+          <t>0.1188797544418351</t>
+        </is>
+      </c>
+      <c r="O9" s="14" t="inlineStr">
+        <is>
+          <t>0.20723641799482034</t>
+        </is>
+      </c>
+      <c r="P9" s="13" t="inlineStr">
+        <is>
+          <t>0.3457763421616592</t>
+        </is>
+      </c>
+      <c r="Q9" s="12" t="inlineStr">
+        <is>
+          <t>0.02587</t>
+        </is>
+      </c>
+      <c r="R9" s="12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="S9" s="14" t="inlineStr">
+        <is>
+          <t>368.10795660160875</t>
+        </is>
+      </c>
+      <c r="T9" s="14" t="inlineStr">
+        <is>
+          <t>-6012.20374383506</t>
+        </is>
+      </c>
+      <c r="U9" s="14" t="inlineStr">
+        <is>
+          <t>25804.818892539035</t>
+        </is>
+      </c>
+      <c r="V9" s="14" t="inlineStr">
+        <is>
+          <t>-39897.94886657959</t>
+        </is>
+      </c>
+      <c r="W9" s="13" t="inlineStr">
+        <is>
+          <t>20090.379910716</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>Solver</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.060141576 0.097858133 0.00066887789 -0.12723182 0.029296548</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-0.042246902 -0.077157637 0.056469655 0.056975938 -0.063087822 0.1296958</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-0.057093174 0.038019435 0.11887254 0.20723722 0.34577835</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.066699398 0.02708112 0.10354589 0.18074584 0.27029065 0.41947709</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>840 -11340 43680 -63000 30240</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-1680 32760 -191520 466200 -498960 194040</t>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>6.793e-15</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="inlineStr">
+        <is>
+          <t>0.15651984409411462</t>
+        </is>
+      </c>
+      <c r="F10" s="14" t="inlineStr">
+        <is>
+          <t>0.2771925750224961</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>-0.3056734494008037</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>-0.2551106287425678</t>
+        </is>
+      </c>
+      <c r="I10" s="13" t="inlineStr">
+        <is>
+          <t>0.10215121349834518</t>
+        </is>
+      </c>
+      <c r="J10" s="12" t="inlineStr">
+        <is>
+          <t>6.305e-16</t>
+        </is>
+      </c>
+      <c r="K10" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="14" t="inlineStr">
+        <is>
+          <t>-0.0570931743531675</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>0.03801943473439143</t>
+        </is>
+      </c>
+      <c r="N10" s="14" t="inlineStr">
+        <is>
+          <t>0.11887253806928845</t>
+        </is>
+      </c>
+      <c r="O10" s="14" t="inlineStr">
+        <is>
+          <t>0.20723722429688393</t>
+        </is>
+      </c>
+      <c r="P10" s="13" t="inlineStr">
+        <is>
+          <t>0.34577834547327574</t>
+        </is>
+      </c>
+      <c r="Q10" s="12" t="inlineStr">
+        <is>
+          <t>1.364e-12</t>
+        </is>
+      </c>
+      <c r="R10" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S10" s="14" t="inlineStr">
+        <is>
+          <t>839.9999999999136</t>
+        </is>
+      </c>
+      <c r="T10" s="14" t="inlineStr">
+        <is>
+          <t>-11339.999999990381</t>
+        </is>
+      </c>
+      <c r="U10" s="14" t="inlineStr">
+        <is>
+          <t>43679.999999948486</t>
+        </is>
+      </c>
+      <c r="V10" s="14" t="inlineStr">
+        <is>
+          <t>-62999.999999915475</t>
+        </is>
+      </c>
+      <c r="W10" s="13" t="inlineStr">
+        <is>
+          <t>30239.999999956868</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="1" min="1" width="11"/>
     <col customWidth="1" max="2" min="2" width="19"/>
     <col customWidth="1" max="3" min="3" width="25"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="5" min="5" width="21"/>
-    <col customWidth="1" max="6" min="6" width="21"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
     <col customWidth="1" max="7" min="7" width="22"/>
     <col customWidth="1" max="8" min="8" width="22"/>
     <col customWidth="1" max="9" min="9" width="21"/>
@@ -497,13 +497,20 @@
     <col customWidth="1" max="14" min="14" width="21"/>
     <col customWidth="1" max="15" min="15" width="21"/>
     <col customWidth="1" max="16" min="16" width="21"/>
-    <col customWidth="1" max="17" min="17" width="29"/>
+    <col customWidth="1" max="17" min="17" width="25"/>
     <col customWidth="1" max="18" min="18" width="12"/>
-    <col customWidth="1" max="19" min="19" width="20"/>
-    <col customWidth="1" max="20" min="20" width="21"/>
+    <col customWidth="1" max="19" min="19" width="21"/>
+    <col customWidth="1" max="20" min="20" width="24"/>
     <col customWidth="1" max="21" min="21" width="20"/>
     <col customWidth="1" max="22" min="22" width="21"/>
-    <col customWidth="1" max="23" min="23" width="20"/>
+    <col customWidth="1" max="23" min="23" width="24"/>
+    <col customWidth="1" max="24" min="24" width="29"/>
+    <col customWidth="1" max="25" min="25" width="12"/>
+    <col customWidth="1" max="26" min="26" width="21"/>
+    <col customWidth="1" max="27" min="27" width="21"/>
+    <col customWidth="1" max="28" min="28" width="20"/>
+    <col customWidth="1" max="29" min="29" width="21"/>
+    <col customWidth="1" max="30" min="30" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,17 +538,23 @@
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="3" t="inlineStr">
         <is>
+          <t>normized</t>
+        </is>
+      </c>
+      <c r="W1" s="4" t="n"/>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
           <t>bad cond</t>
         </is>
       </c>
-      <c r="W1" s="4" t="n"/>
+      <c r="AD1" s="4" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n"/>
       <c r="B2" s="4" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>size: 5   cond: 58.2002</t>
+          <t>size: 5   cond: 141.085</t>
         </is>
       </c>
       <c r="I2" s="4" t="n"/>
@@ -553,10 +566,16 @@
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="3" t="inlineStr">
         <is>
+          <t>size: 5   cond: 272.105</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
           <t>size: 5   cond: 1.53504e+06</t>
         </is>
       </c>
-      <c r="W2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n"/>
@@ -618,6 +637,25 @@
       <c r="U3" s="10" t="n"/>
       <c r="V3" s="10" t="n"/>
       <c r="W3" s="7" t="n"/>
+      <c r="X3" s="8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y3" s="8" t="inlineStr">
+        <is>
+          <t>iterations</t>
+        </is>
+      </c>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="AA3" s="10" t="n"/>
+      <c r="AB3" s="10" t="n"/>
+      <c r="AC3" s="10" t="n"/>
+      <c r="AD3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
@@ -632,7 +670,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>2.132e-14</t>
+          <t>1.471e-14</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -642,27 +680,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.15651984409411424</t>
+          <t>-1.0688782958391876</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2771925750224953</t>
+          <t>1.0545066051513072</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.3056734494008028</t>
+          <t>-0.34412099451341466</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.2551106287425672</t>
+          <t>0.005624943851301536</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>0.10215121349834508</t>
+          <t>0.45991355692370645</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
@@ -702,35 +740,70 @@
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
+          <t>3.677e-14</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-502.7401571353746</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>98.64760705543216</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>389.94196473525267</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-176.40766286677342</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>-25.639481662484137</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
           <t>1.364e-12</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>839.9999999976626</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>-11339.99999996872</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>43679.99999988438</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>-62999.99999984065</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="AD4" s="4" t="inlineStr">
         <is>
           <t>30239.999999926677</t>
         </is>
@@ -745,7 +818,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>6.226e-14</t>
+          <t>1.617e-13</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -755,27 +828,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.156519844094114</t>
+          <t>-1.0688782958392005</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.2771925750224934</t>
+          <t>1.054506605151319</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.3056734494008012</t>
+          <t>-0.3441209945134167</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.25511062874256535</t>
+          <t>0.005624943851301433</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>0.10215121349834412</t>
+          <t>0.45991355692371205</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
@@ -815,35 +888,70 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
+          <t>7.782e-14</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-502.7401571353772</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>98.64760705543264</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>389.94196473525477</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-176.40766286677425</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>-25.63948166248435</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
           <t>9.125e-08</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>839.9999998645435</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>-11339.9999999338</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>43679.999999763466</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>-62999.99999968098</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="AD5" s="4" t="inlineStr">
         <is>
           <t>30239.99999985542</t>
         </is>
@@ -858,7 +966,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>4.529e-15</t>
+          <t>2.226e-14</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -868,27 +976,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.15651984409411465</t>
+          <t>-1.068878295839187</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.27719257502249606</t>
+          <t>1.0545066051513066</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.30567344940080377</t>
+          <t>-0.3441209945134145</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.2551106287425678</t>
+          <t>0.00562494385130155</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>0.10215121349834526</t>
+          <t>0.4599135569237063</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
@@ -928,35 +1036,70 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
+          <t>1.397e-13</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-502.74015713538614</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>98.64760705543483</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>389.94196473526176</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-176.40766286677803</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>-25.639481662484968</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
           <t>7.422e-11</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>839.9999999988468</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>-11339.999999981457</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>43679.99999992573</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>-62999.99999989262</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="AD6" s="4" t="inlineStr">
         <is>
           <t>30239.9999999492</t>
         </is>
@@ -971,7 +1114,7 @@
       </c>
       <c r="C7" s="12" t="inlineStr">
         <is>
-          <t>1.375e-14</t>
+          <t>1.676e-14</t>
         </is>
       </c>
       <c r="D7" s="12" t="inlineStr">
@@ -981,27 +1124,27 @@
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>0.15651984409411496</t>
+          <t>-1.0688782958391898</t>
         </is>
       </c>
       <c r="F7" s="14" t="inlineStr">
         <is>
-          <t>0.2771925750224963</t>
+          <t>1.0545066051513092</t>
         </is>
       </c>
       <c r="G7" s="14" t="inlineStr">
         <is>
-          <t>-0.3056734494008042</t>
+          <t>-0.3441209945134152</t>
         </is>
       </c>
       <c r="H7" s="14" t="inlineStr">
         <is>
-          <t>-0.25511062874256796</t>
+          <t>0.005624943851301516</t>
         </is>
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>0.1021512134983453</t>
+          <t>0.45991355692370733</t>
         </is>
       </c>
       <c r="J7" s="12" t="inlineStr">
@@ -1041,35 +1184,70 @@
       </c>
       <c r="Q7" s="12" t="inlineStr">
         <is>
+          <t>2.628e-14</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" s="14" t="inlineStr">
+        <is>
+          <t>-502.7401571353775</t>
+        </is>
+      </c>
+      <c r="T7" s="14" t="inlineStr">
+        <is>
+          <t>98.64760705543264</t>
+        </is>
+      </c>
+      <c r="U7" s="14" t="inlineStr">
+        <is>
+          <t>389.9419647352548</t>
+        </is>
+      </c>
+      <c r="V7" s="14" t="inlineStr">
+        <is>
+          <t>-176.40766286677425</t>
+        </is>
+      </c>
+      <c r="W7" s="13" t="inlineStr">
+        <is>
+          <t>-25.639481662484364</t>
+        </is>
+      </c>
+      <c r="X7" s="12" t="inlineStr">
+        <is>
           <t>1.364e-12</t>
         </is>
       </c>
-      <c r="R7" s="12" t="inlineStr">
+      <c r="Y7" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S7" s="14" t="inlineStr">
+      <c r="Z7" s="14" t="inlineStr">
         <is>
           <t>840.0000000028867</t>
         </is>
       </c>
-      <c r="T7" s="14" t="inlineStr">
+      <c r="AA7" s="14" t="inlineStr">
         <is>
           <t>-11340.00000002807</t>
         </is>
       </c>
-      <c r="U7" s="14" t="inlineStr">
+      <c r="AB7" s="14" t="inlineStr">
         <is>
           <t>43680.00000008446</t>
         </is>
       </c>
-      <c r="V7" s="14" t="inlineStr">
+      <c r="AC7" s="14" t="inlineStr">
         <is>
           <t>-63000.000000100335</t>
         </is>
       </c>
-      <c r="W7" s="13" t="inlineStr">
+      <c r="AD7" s="13" t="inlineStr">
         <is>
           <t>30240.000000041196</t>
         </is>
@@ -1078,117 +1256,152 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>relax</t>
+          <t>gradients</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Relax</t>
+          <t>Gradients</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5.632e+15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-8272417824057.391</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-46097846347806.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14686675897920.516</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>42267421507561.83</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>71496567882689.88</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>0.02706</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-0.055734500868666145</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.03789388452128098</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.11912983517434719</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.20807351711908997</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>0.3431860038973428</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>9.779e+15</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-2729708912721304.0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.088005491373727e+16</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>8815935408980007.0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>9303250886483026.0</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>1.2342186831432278e+16</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>1.462</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="inlineStr">
+        <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>0.0009688</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-0.057005373811672935</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0.03801286064149057</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.11882265975743724</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.20721143696736896</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>0.34577634347801867</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>0.01574</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>587.6768280594335</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-8514.128104721258</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>34251.91708893668</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-50865.29912089519</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>24925.699017386116</t>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-320.21854496907486</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2075.1316583146345</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-2204.565954802547</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-2790.7170818567542</t>
+        </is>
+      </c>
+      <c r="AD8" s="4" t="inlineStr">
+        <is>
+          <t>3470.3325029319913</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1409,7 @@
       <c r="A9" s="12" t="n"/>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Seidel</t>
+          <t>Jacobi</t>
         </is>
       </c>
       <c r="C9" s="12" t="inlineStr">
@@ -1206,22 +1419,22 @@
       </c>
       <c r="D9" s="12" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E9" s="14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="F9" s="14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="G9" s="14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="H9" s="14" t="inlineStr">
@@ -1231,199 +1444,569 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="J9" s="12" t="inlineStr">
         <is>
-          <t>0.0004197</t>
+          <t>0.002257</t>
         </is>
       </c>
       <c r="K9" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>-0.057121632402611894</t>
+          <t>-0.0571492214934278</t>
         </is>
       </c>
       <c r="M9" s="14" t="inlineStr">
         <is>
-          <t>0.038058912559349053</t>
+          <t>0.037950114522682876</t>
         </is>
       </c>
       <c r="N9" s="14" t="inlineStr">
         <is>
-          <t>0.1188797544418351</t>
+          <t>0.11879907315207194</t>
         </is>
       </c>
       <c r="O9" s="14" t="inlineStr">
         <is>
-          <t>0.20723641799482034</t>
+          <t>0.207167904083082</t>
         </is>
       </c>
       <c r="P9" s="13" t="inlineStr">
         <is>
-          <t>0.3457763421616592</t>
+          <t>0.3457222983347109</t>
         </is>
       </c>
       <c r="Q9" s="12" t="inlineStr">
         <is>
-          <t>0.02587</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="R9" s="12" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>193</t>
         </is>
       </c>
       <c r="S9" s="14" t="inlineStr">
         <is>
-          <t>368.10795660160875</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="T9" s="14" t="inlineStr">
         <is>
-          <t>-6012.20374383506</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="U9" s="14" t="inlineStr">
         <is>
-          <t>25804.818892539035</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="V9" s="14" t="inlineStr">
         <is>
-          <t>-39897.94886657959</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="W9" s="13" t="inlineStr">
         <is>
-          <t>20090.379910716</t>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="X9" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y9" s="12" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="Z9" s="14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="AA9" s="14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="AB9" s="14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="AC9" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AD9" s="13" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
+          <t>relax</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Relax</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>0.0009688</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-0.057005373811672935</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.03801286064149057</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.11882265975743724</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.20721143696736896</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>0.34577634347801867</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>0.01574</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>587.6768280594335</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-8514.128104721258</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>34251.91708893668</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>-50865.29912089519</t>
+        </is>
+      </c>
+      <c r="AD10" s="4" t="inlineStr">
+        <is>
+          <t>24925.699017386116</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>Seidel</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" s="12" t="inlineStr">
+        <is>
+          <t>0.0004197</t>
+        </is>
+      </c>
+      <c r="K11" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L11" s="14" t="inlineStr">
+        <is>
+          <t>-0.057121632402611894</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>0.038058912559349053</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>0.1188797544418351</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>0.20723641799482034</t>
+        </is>
+      </c>
+      <c r="P11" s="13" t="inlineStr">
+        <is>
+          <t>0.3457763421616592</t>
+        </is>
+      </c>
+      <c r="Q11" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="R11" s="12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V11" s="14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W11" s="13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X11" s="12" t="inlineStr">
+        <is>
+          <t>0.02587</t>
+        </is>
+      </c>
+      <c r="Y11" s="12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Z11" s="14" t="inlineStr">
+        <is>
+          <t>368.10795660160875</t>
+        </is>
+      </c>
+      <c r="AA11" s="14" t="inlineStr">
+        <is>
+          <t>-6012.20374383506</t>
+        </is>
+      </c>
+      <c r="AB11" s="14" t="inlineStr">
+        <is>
+          <t>25804.818892539035</t>
+        </is>
+      </c>
+      <c r="AC11" s="14" t="inlineStr">
+        <is>
+          <t>-39897.94886657959</t>
+        </is>
+      </c>
+      <c r="AD11" s="13" t="inlineStr">
+        <is>
+          <t>20090.379910716</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B12" s="13" t="inlineStr">
         <is>
           <t>Solver</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>6.793e-15</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>2.168e-14</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>0.15651984409411462</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>0.2771925750224961</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>-0.3056734494008037</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>-0.2551106287425678</t>
-        </is>
-      </c>
-      <c r="I10" s="13" t="inlineStr">
-        <is>
-          <t>0.10215121349834518</t>
-        </is>
-      </c>
-      <c r="J10" s="12" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
+        <is>
+          <t>-1.0688782958391863</t>
+        </is>
+      </c>
+      <c r="F12" s="14" t="inlineStr">
+        <is>
+          <t>1.054506605151306</t>
+        </is>
+      </c>
+      <c r="G12" s="14" t="inlineStr">
+        <is>
+          <t>-0.3441209945134142</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>0.005624943851301619</t>
+        </is>
+      </c>
+      <c r="I12" s="13" t="inlineStr">
+        <is>
+          <t>0.45991355692370584</t>
+        </is>
+      </c>
+      <c r="J12" s="12" t="inlineStr">
         <is>
           <t>6.305e-16</t>
         </is>
       </c>
-      <c r="K10" s="12" t="inlineStr">
+      <c r="K12" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L10" s="14" t="inlineStr">
+      <c r="L12" s="14" t="inlineStr">
         <is>
           <t>-0.0570931743531675</t>
         </is>
       </c>
-      <c r="M10" s="14" t="inlineStr">
+      <c r="M12" s="14" t="inlineStr">
         <is>
           <t>0.03801943473439143</t>
         </is>
       </c>
-      <c r="N10" s="14" t="inlineStr">
+      <c r="N12" s="14" t="inlineStr">
         <is>
           <t>0.11887253806928845</t>
         </is>
       </c>
-      <c r="O10" s="14" t="inlineStr">
+      <c r="O12" s="14" t="inlineStr">
         <is>
           <t>0.20723722429688393</t>
         </is>
       </c>
-      <c r="P10" s="13" t="inlineStr">
+      <c r="P12" s="13" t="inlineStr">
         <is>
           <t>0.34577834547327574</t>
         </is>
       </c>
-      <c r="Q10" s="12" t="inlineStr">
+      <c r="Q12" s="12" t="inlineStr">
+        <is>
+          <t>2.363e-14</t>
+        </is>
+      </c>
+      <c r="R12" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S12" s="14" t="inlineStr">
+        <is>
+          <t>-502.7401571353743</t>
+        </is>
+      </c>
+      <c r="T12" s="14" t="inlineStr">
+        <is>
+          <t>98.64760705543212</t>
+        </is>
+      </c>
+      <c r="U12" s="14" t="inlineStr">
+        <is>
+          <t>389.94196473525244</t>
+        </is>
+      </c>
+      <c r="V12" s="14" t="inlineStr">
+        <is>
+          <t>-176.4076628667733</t>
+        </is>
+      </c>
+      <c r="W12" s="13" t="inlineStr">
+        <is>
+          <t>-25.639481662484148</t>
+        </is>
+      </c>
+      <c r="X12" s="12" t="inlineStr">
         <is>
           <t>1.364e-12</t>
         </is>
       </c>
-      <c r="R10" s="12" t="inlineStr">
+      <c r="Y12" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S10" s="14" t="inlineStr">
+      <c r="Z12" s="14" t="inlineStr">
         <is>
           <t>839.9999999999136</t>
         </is>
       </c>
-      <c r="T10" s="14" t="inlineStr">
+      <c r="AA12" s="14" t="inlineStr">
         <is>
           <t>-11339.999999990381</t>
         </is>
       </c>
-      <c r="U10" s="14" t="inlineStr">
+      <c r="AB12" s="14" t="inlineStr">
         <is>
           <t>43679.999999948486</t>
         </is>
       </c>
-      <c r="V10" s="14" t="inlineStr">
+      <c r="AC12" s="14" t="inlineStr">
         <is>
           <t>-62999.999999915475</t>
         </is>
       </c>
-      <c r="W10" s="13" t="inlineStr">
+      <c r="AD12" s="13" t="inlineStr">
         <is>
           <t>30239.999999956868</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:I1"/>
@@ -1435,9 +2018,13 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="X2:AD2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
